--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,11 +11331,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ventisqueros S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>GRANJA MARINA TORNAGALEONES S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>Productos del Mar Ventisqueros S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F239" t="n">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7338061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7338061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7336853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7336853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7307548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7307548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7282934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7291515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7291515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7282934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4109326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4109326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2777737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2777737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=386940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=386940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7829920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7338061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7338061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7336853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7343521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7336853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7307548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7307548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7308342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7291515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7282934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7282934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7291515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6104143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5653152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4109326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4109326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2777737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2777737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2778216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2730680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2731958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=386940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=386940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=387730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=46291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
+          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,11 +10803,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Fiordo Blanco</t>
+          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
+          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,11 +10851,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
+          <t>Fiordo Blanco</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
+          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,11 +10803,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
+          <t>Fiordo Blanco</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
+          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,11 +10851,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Fiordo Blanco</t>
+          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Chaitén.xlsx
+++ b/data/Chaitén.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES PUNTA GRUESA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128497416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR ISLA LLAHUEN.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL MODIFICACION AL MANEJO DE MORTALIDAD MEDIANTE UN SISTEMA DE ENSILAJE EN CENTRO CULTIVO SALMONES SUR PUNTA TENGO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128493300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128499359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Islote Roberto - Trusal S.A.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Caleta Velero - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6219501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN NAYAHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA GAONA, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3984032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, SURESTE DE PUNTA BECERRA, ISLA PUDUGUAPI, COMUNA DE CHAITÉN, X REGIÓN (e-seia)</t>
+          <t>MODIFICACION DEL PROYECTO CENTRO DE CULTIVO DE SALMÓNIDOS, ESTERO COMAU, AL NORTE DE CALETA MARILMO, CHAITÉN, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2799024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,11 +7827,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Salmones Chiloé S.A.</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar Caleta Buill, Sector Norweste de Caleta Buill, Comuna de Chaitén (Código Centro (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmones Isla Talcan Sector Nor-Oeste ( Código Centro 102423) (e-seia)</t>
+          <t>Centro de Engorda de Salmonídeos en Mar, Caleta Ayacara,Sector Norweste de Caleta Ayacara, Comuna de Chaitén, Provincia de Palena, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Salmones Chiloé S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1285457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Providencia Fish Farms S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7984,12 +7984,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue, Providencia Fish Farms S.A. (e-seia)</t>
+          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Providencia Fish Farms S.A.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Estero Palvitad, Sector Punta Yelcho ( Código Centro 103514) (e-seia)</t>
+          <t>Centro de Cultivo Río Reñihue ( 102945) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
+          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,11 +10803,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Fiordo Blanco</t>
+          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Caleta del Rey N° Pert 99103277</t>
+          <t>Centro de Engorda de Salmones Bahía Pumalín PERT N° 99103057</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,11 +10851,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NESTOR MANUEL PEREZ CÁRCAMO</t>
+          <t>Fiordo Blanco</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
+          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10960,12 +10960,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Puduguaipi N°Solicitud 200103230</t>
+          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Pumalín (Sol. N°200103016)</t>
+          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,11 +11043,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cultivos Marinos El Rosario N° PERT 200103013</t>
+          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Auchemo N° Solicitud 200103014</t>
+          <t>Cultivos Marinos Isla Velero N° Solicitud 200103022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
+          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
+          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Sur de Isla Ahullini Chaitén Solicitud N° 200103132</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Noroeste de Punta Gazitúa Chaitén Solicitud N° 200103229</t>
+          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Imerquiña Chaitén Solicitud N° 200103129</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmones Sur Punta Tengo Chaitén PERT N° 200103225</t>
+          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmonídeos PERT N° 200103228</t>
+          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Punta Gaona Isla Chulin Chaitén Solicitud N° 200103189</t>
+          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Salmones Norte Río Aquellas Chaitén Pert N° 200103222</t>
+          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento de Salmonídeos Norte de Isla Nayahue Chaiten Solicitud N° 200103214</t>
+          <t>Centro de Crecimiento de Salmonídeos Suroeste Isla Talcan Chaitén Solicitud N° 200103216</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmonídeos Oeste Isla Talcan Chiloé (Sol. N°99103257)</t>
+          <t>Centro de Crecimiento y Engorda de Salmonídeos Noroeste Isla Llahuén Chaitén Solicitud N° 200103226</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11710,16 +11710,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>GLACIARES DOS S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
+          <t>Centro de Cultivo Río Reñihue Aqua Smolt Chiloé S A ( Sol. N° 200103235)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CALETA BAY MAR SpA.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Cultivo Leptepu Fiordo Blanco S A (Sol. N°200103044)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,16 +11806,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CALETA BAY MAR SpA.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
